--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10201_プロジェクト登録.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10201_プロジェクト登録.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB4FFF-84D3-4F4D-8BB0-754872304436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49706A22-2AF4-42A4-9895-A558DF5B0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="352">
   <si>
     <t>PJ名</t>
   </si>
@@ -632,43 +632,6 @@
       <t>コウバンナド</t>
     </rPh>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>全ての入力項目に対して、指定ドメインに応じたバリデーションを実施し、入力内容の妥当性を確認する。</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ダトウセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>PJ名</t>
@@ -2461,16 +2424,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -2550,10 +2503,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>「2. WA1020101(プロジェクト登録画面) &gt; 2.6.5. 確認イベント &gt; (1) バリデーション処理」と同様のバリデーションを行う。</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -2588,6 +2537,86 @@
     <rPh sb="15" eb="17">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>3. WA1020102、4. WA1020103</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ドメイン情報をドメイン定義書に合わせて修正</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客名</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>全ての入力項目に対して、指定ドメインに応じたバリデーションおよび必須チェックを実施し、入力内容の妥当性を確認する。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ダトウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. WA1020101</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>単項目バリデーションのバリデーション内容の説明を修正</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -4297,6 +4326,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4311,15 +4349,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4875,22 +4904,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>56573</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>183207</xdr:colOff>
+      <xdr:colOff>196215</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932EEE6D-DC3E-499F-A7D7-83CD1066C963}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D39E7EC-4107-4782-B8B3-73F4EEFB3ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4906,8 +4935,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="885248" y="981074"/>
-          <a:ext cx="7860934" cy="5124451"/>
+          <a:off x="895350" y="990600"/>
+          <a:ext cx="7863840" cy="5120640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5371,22 +5400,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>54452</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>192405</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>37960</xdr:rowOff>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5270512-3903-40DE-A65D-6ED0BBCA11FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4405AD0-35F0-435A-81D6-49C3341A0191}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5402,8 +5431,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847724" y="1092677"/>
-          <a:ext cx="7343776" cy="4250708"/>
+          <a:off x="857250" y="1104900"/>
+          <a:ext cx="7345680" cy="4251960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5572,22 +5601,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77439</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>135852</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC8AC05-648B-4FDB-A86D-C43EF35409F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271809AB-786D-4970-BEF7-7D8F7E8A3637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5595,15 +5624,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="25497"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="629889" y="1174077"/>
-          <a:ext cx="8018811" cy="2864523"/>
+          <a:off x="638175" y="1181100"/>
+          <a:ext cx="8016240" cy="2865120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6041,7 +6071,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="18"/>
       <c r="J23" s="14" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -6061,7 +6091,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44701</v>
+        <v>44908</v>
       </c>
       <c r="J25" s="160"/>
       <c r="K25" s="160"/>
@@ -6696,7 +6726,7 @@
       <c r="C1" s="162"/>
       <c r="D1" s="163"/>
       <c r="E1" s="208" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F1" s="209"/>
       <c r="G1" s="209"/>
@@ -6714,7 +6744,7 @@
       <c r="Q1" s="165"/>
       <c r="R1" s="166"/>
       <c r="S1" s="214" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T1" s="215"/>
       <c r="U1" s="215"/>
@@ -6754,7 +6784,7 @@
       <c r="C2" s="162"/>
       <c r="D2" s="163"/>
       <c r="E2" s="208" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="209"/>
       <c r="G2" s="209"/>
@@ -6790,7 +6820,7 @@
       <c r="AF2" s="207"/>
       <c r="AG2" s="202">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44701</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="203"/>
       <c r="AI2" s="204"/>
@@ -6808,7 +6838,7 @@
       <c r="C3" s="162"/>
       <c r="D3" s="163"/>
       <c r="E3" s="208" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" s="209"/>
       <c r="G3" s="209"/>
@@ -7030,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="190" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="191"/>
       <c r="D8" s="192">
@@ -7039,12 +7069,12 @@
       <c r="E8" s="193"/>
       <c r="F8" s="194"/>
       <c r="G8" s="190" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="195"/>
       <c r="I8" s="191"/>
       <c r="J8" s="211" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" s="212"/>
       <c r="L8" s="212"/>
@@ -7053,7 +7083,7 @@
       <c r="O8" s="212"/>
       <c r="P8" s="213"/>
       <c r="Q8" s="199" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R8" s="200"/>
       <c r="S8" s="200"/>
@@ -7070,7 +7100,7 @@
       <c r="AD8" s="200"/>
       <c r="AE8" s="201"/>
       <c r="AF8" s="211" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG8" s="212"/>
       <c r="AH8" s="212"/>
@@ -7081,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="181" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C9" s="182"/>
       <c r="D9" s="183">
@@ -7090,12 +7120,12 @@
       <c r="E9" s="184"/>
       <c r="F9" s="185"/>
       <c r="G9" s="181" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H9" s="186"/>
       <c r="I9" s="182"/>
       <c r="J9" s="178" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K9" s="179"/>
       <c r="L9" s="179"/>
@@ -7104,7 +7134,7 @@
       <c r="O9" s="179"/>
       <c r="P9" s="180"/>
       <c r="Q9" s="175" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R9" s="176"/>
       <c r="S9" s="176"/>
@@ -7121,7 +7151,7 @@
       <c r="AD9" s="176"/>
       <c r="AE9" s="177"/>
       <c r="AF9" s="178" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG9" s="179"/>
       <c r="AH9" s="179"/>
@@ -7138,7 +7168,7 @@
       <c r="H10" s="186"/>
       <c r="I10" s="182"/>
       <c r="J10" s="178" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K10" s="179"/>
       <c r="L10" s="179"/>
@@ -7147,7 +7177,7 @@
       <c r="O10" s="179"/>
       <c r="P10" s="180"/>
       <c r="Q10" s="175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="R10" s="176"/>
       <c r="S10" s="176"/>
@@ -7164,30 +7194,42 @@
       <c r="AD10" s="176"/>
       <c r="AE10" s="177"/>
       <c r="AF10" s="178" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG10" s="179"/>
       <c r="AH10" s="179"/>
       <c r="AI10" s="180"/>
     </row>
     <row r="11" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
-      <c r="B11" s="181"/>
+      <c r="A11" s="41">
+        <v>3</v>
+      </c>
+      <c r="B11" s="181" t="s">
+        <v>344</v>
+      </c>
       <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
+      <c r="D11" s="183">
+        <v>44907</v>
+      </c>
       <c r="E11" s="184"/>
       <c r="F11" s="185"/>
-      <c r="G11" s="181"/>
+      <c r="G11" s="181" t="s">
+        <v>334</v>
+      </c>
       <c r="H11" s="186"/>
       <c r="I11" s="182"/>
-      <c r="J11" s="178"/>
+      <c r="J11" s="178" t="s">
+        <v>345</v>
+      </c>
       <c r="K11" s="179"/>
       <c r="L11" s="179"/>
       <c r="M11" s="179"/>
       <c r="N11" s="179"/>
       <c r="O11" s="179"/>
       <c r="P11" s="180"/>
-      <c r="Q11" s="175"/>
+      <c r="Q11" s="175" t="s">
+        <v>346</v>
+      </c>
       <c r="R11" s="176"/>
       <c r="S11" s="176"/>
       <c r="T11" s="176"/>
@@ -7202,29 +7244,43 @@
       <c r="AC11" s="176"/>
       <c r="AD11" s="176"/>
       <c r="AE11" s="177"/>
-      <c r="AF11" s="178"/>
+      <c r="AF11" s="178" t="s">
+        <v>336</v>
+      </c>
       <c r="AG11" s="179"/>
       <c r="AH11" s="179"/>
       <c r="AI11" s="180"/>
     </row>
     <row r="12" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
-      <c r="B12" s="181"/>
+      <c r="A12" s="41">
+        <v>4</v>
+      </c>
+      <c r="B12" s="181" t="s">
+        <v>344</v>
+      </c>
       <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
+      <c r="D12" s="183">
+        <v>44908</v>
+      </c>
       <c r="E12" s="184"/>
       <c r="F12" s="185"/>
-      <c r="G12" s="181"/>
+      <c r="G12" s="181" t="s">
+        <v>334</v>
+      </c>
       <c r="H12" s="186"/>
       <c r="I12" s="182"/>
-      <c r="J12" s="178"/>
+      <c r="J12" s="178" t="s">
+        <v>350</v>
+      </c>
       <c r="K12" s="179"/>
       <c r="L12" s="179"/>
       <c r="M12" s="179"/>
       <c r="N12" s="179"/>
       <c r="O12" s="179"/>
       <c r="P12" s="180"/>
-      <c r="Q12" s="175"/>
+      <c r="Q12" s="175" t="s">
+        <v>351</v>
+      </c>
       <c r="R12" s="176"/>
       <c r="S12" s="176"/>
       <c r="T12" s="176"/>
@@ -7239,7 +7295,9 @@
       <c r="AC12" s="176"/>
       <c r="AD12" s="176"/>
       <c r="AE12" s="177"/>
-      <c r="AF12" s="178"/>
+      <c r="AF12" s="178" t="s">
+        <v>336</v>
+      </c>
       <c r="AG12" s="179"/>
       <c r="AH12" s="179"/>
       <c r="AI12" s="180"/>
@@ -8495,7 +8553,7 @@
       <c r="AF2" s="198"/>
       <c r="AG2" s="233">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44701</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="234"/>
       <c r="AI2" s="235"/>
@@ -8779,7 +8837,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10"/>
       <c r="B10" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -8892,7 +8950,7 @@
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -9079,7 +9137,7 @@
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -9119,7 +9177,7 @@
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -9158,7 +9216,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -9197,7 +9255,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -9236,7 +9294,7 @@
       <c r="A22"/>
       <c r="B22" s="30"/>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -9275,7 +9333,7 @@
       <c r="A23"/>
       <c r="B23" s="30"/>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -9314,7 +9372,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -9389,7 +9447,7 @@
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26"/>
       <c r="B26" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -9429,7 +9487,7 @@
       <c r="A27" s="25"/>
       <c r="B27"/>
       <c r="C27" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -9468,7 +9526,7 @@
       <c r="A28" s="25"/>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -9507,7 +9565,7 @@
       <c r="A29" s="25"/>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -9546,7 +9604,7 @@
       <c r="A30" s="25"/>
       <c r="B30" s="30"/>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -9585,7 +9643,7 @@
       <c r="A31" s="25"/>
       <c r="B31" s="30"/>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -9624,7 +9682,7 @@
       <c r="A32" s="25"/>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -9870,7 +9928,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="161" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="162"/>
       <c r="C1" s="162"/>
@@ -9969,7 +10027,7 @@
       <c r="AF2" s="198"/>
       <c r="AG2" s="233">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44701</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="234"/>
       <c r="AI2" s="235"/>
@@ -10043,7 +10101,7 @@
       <c r="E8" s="247"/>
       <c r="F8" s="248"/>
       <c r="G8" s="178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H8" s="249"/>
       <c r="I8" s="249"/>
@@ -10081,7 +10139,7 @@
       <c r="E9" s="251"/>
       <c r="F9" s="252"/>
       <c r="G9" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9" s="247"/>
       <c r="I9" s="247"/>
@@ -10119,7 +10177,7 @@
       <c r="E10" s="238"/>
       <c r="F10" s="239"/>
       <c r="G10" s="129" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="65"/>
@@ -10259,7 +10317,7 @@
       <c r="E14" s="236"/>
       <c r="F14" s="236"/>
       <c r="G14" s="72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" s="73"/>
       <c r="I14" s="73"/>
@@ -10482,7 +10540,7 @@
       <c r="AF2" s="198"/>
       <c r="AG2" s="310">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44701</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="311"/>
       <c r="AI2" s="312"/>
@@ -10540,7 +10598,7 @@
     <row r="4" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM5" s="140"/>
     </row>
@@ -10706,7 +10764,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="303" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F51" s="304"/>
       <c r="G51" s="304"/>
@@ -10717,19 +10775,19 @@
       <c r="L51" s="304"/>
       <c r="M51" s="304"/>
       <c r="N51" s="304" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O51" s="304"/>
       <c r="P51" s="304"/>
       <c r="Q51" s="293" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R51" s="293"/>
       <c r="S51" s="293"/>
       <c r="T51" s="293"/>
       <c r="U51" s="293"/>
       <c r="V51" s="294" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W51" s="293"/>
       <c r="X51" s="293"/>
@@ -10774,7 +10832,7 @@
     </row>
     <row r="54" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK54" s="64"/>
       <c r="AL54" s="64"/>
@@ -10854,7 +10912,7 @@
       <c r="AI56" s="92"/>
       <c r="AJ56" s="92"/>
       <c r="AK56" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL56" s="92"/>
       <c r="AM56" s="92"/>
@@ -10875,7 +10933,7 @@
       <c r="K57" s="288"/>
       <c r="L57" s="289"/>
       <c r="M57" s="287" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N57" s="288"/>
       <c r="O57" s="288"/>
@@ -10966,7 +11024,7 @@
     </row>
     <row r="59" spans="3:53" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D59" s="306" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E59" s="307"/>
       <c r="F59" s="307"/>
@@ -11002,7 +11060,7 @@
       <c r="AJ59" s="92"/>
       <c r="AK59" s="92"/>
       <c r="AL59" s="138" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM59" s="136"/>
       <c r="AN59" s="136"/>
@@ -11018,19 +11076,19 @@
         <v>1</v>
       </c>
       <c r="E60" s="178" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F60" s="179"/>
       <c r="G60" s="179"/>
       <c r="H60" s="180"/>
       <c r="I60" s="295" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J60" s="295"/>
       <c r="K60" s="295"/>
       <c r="L60" s="295"/>
       <c r="M60" s="282" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N60" s="283"/>
       <c r="O60" s="283"/>
@@ -11040,7 +11098,7 @@
       <c r="S60" s="283"/>
       <c r="T60" s="284"/>
       <c r="U60" s="175" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V60" s="176"/>
       <c r="W60" s="176"/>
@@ -11052,28 +11110,28 @@
       <c r="AA60" s="176"/>
       <c r="AB60" s="177"/>
       <c r="AC60" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD60" s="175" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AE60" s="176"/>
       <c r="AF60" s="176"/>
       <c r="AG60" s="177"/>
       <c r="AL60" s="178" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM60" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN60" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AO60" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AP60" s="271" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="3:53" s="64" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11081,19 +11139,19 @@
         <v>2</v>
       </c>
       <c r="E61" s="178" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F61" s="179"/>
       <c r="G61" s="179"/>
       <c r="H61" s="180"/>
       <c r="I61" s="295" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J61" s="295"/>
       <c r="K61" s="295"/>
       <c r="L61" s="295"/>
       <c r="M61" s="282" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N61" s="283"/>
       <c r="O61" s="283"/>
@@ -11103,7 +11161,7 @@
       <c r="S61" s="283"/>
       <c r="T61" s="284"/>
       <c r="U61" s="175" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V61" s="176"/>
       <c r="W61" s="176"/>
@@ -11115,28 +11173,28 @@
       <c r="AA61" s="176"/>
       <c r="AB61" s="177"/>
       <c r="AC61" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD61" s="175" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AE61" s="176"/>
       <c r="AF61" s="176"/>
       <c r="AG61" s="177"/>
       <c r="AL61" s="178" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM61" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN61" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AO61" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AP61" s="271" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="3:53" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11144,19 +11202,19 @@
         <v>3</v>
       </c>
       <c r="E62" s="178" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F62" s="179"/>
       <c r="G62" s="179"/>
       <c r="H62" s="180"/>
       <c r="I62" s="295" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="295"/>
       <c r="K62" s="295"/>
       <c r="L62" s="295"/>
       <c r="M62" s="305" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N62" s="305"/>
       <c r="O62" s="305"/>
@@ -11166,22 +11224,22 @@
       <c r="S62" s="305"/>
       <c r="T62" s="305"/>
       <c r="U62" s="286" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V62" s="286"/>
       <c r="W62" s="286"/>
       <c r="X62" s="286"/>
       <c r="Y62" s="286"/>
       <c r="Z62" s="286" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA62" s="286"/>
       <c r="AB62" s="286"/>
       <c r="AC62" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD62" s="175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE62" s="176"/>
       <c r="AF62" s="176"/>
@@ -11191,19 +11249,19 @@
       <c r="AJ62" s="92"/>
       <c r="AK62" s="92"/>
       <c r="AL62" s="178" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM62" s="249" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AN62" s="249" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AO62" s="249" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP62" s="271" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AQ62" s="92"/>
       <c r="AR62" s="92"/>
@@ -11215,13 +11273,13 @@
         <v>4</v>
       </c>
       <c r="E63" s="178" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F63" s="179"/>
       <c r="G63" s="179"/>
       <c r="H63" s="180"/>
       <c r="I63" s="295" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" s="295"/>
       <c r="K63" s="295"/>
@@ -11237,22 +11295,22 @@
       <c r="S63" s="283"/>
       <c r="T63" s="284"/>
       <c r="U63" s="175" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V63" s="176"/>
       <c r="W63" s="176"/>
       <c r="X63" s="176"/>
       <c r="Y63" s="177"/>
       <c r="Z63" s="286" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA63" s="286"/>
       <c r="AB63" s="286"/>
       <c r="AC63" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD63" s="175" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE63" s="176"/>
       <c r="AF63" s="176"/>
@@ -11262,19 +11320,19 @@
       <c r="AJ63" s="92"/>
       <c r="AK63" s="92"/>
       <c r="AL63" s="178" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM63" s="249" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AN63" s="249" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO63" s="249" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AP63" s="271" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AQ63" s="92"/>
       <c r="AR63" s="92"/>
@@ -11286,13 +11344,13 @@
         <v>5</v>
       </c>
       <c r="E64" s="178" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F64" s="179"/>
       <c r="G64" s="179"/>
       <c r="H64" s="180"/>
       <c r="I64" s="295" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J64" s="295"/>
       <c r="K64" s="295"/>
@@ -11308,22 +11366,22 @@
       <c r="S64" s="283"/>
       <c r="T64" s="284"/>
       <c r="U64" s="175" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V64" s="176"/>
       <c r="W64" s="176"/>
       <c r="X64" s="176"/>
       <c r="Y64" s="177"/>
       <c r="Z64" s="286" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA64" s="286"/>
       <c r="AB64" s="286"/>
       <c r="AC64" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD64" s="175" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE64" s="176"/>
       <c r="AF64" s="176"/>
@@ -11333,19 +11391,19 @@
       <c r="AJ64" s="92"/>
       <c r="AK64" s="92"/>
       <c r="AL64" s="178" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM64" s="249" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AN64" s="249" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO64" s="249" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AP64" s="271" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AQ64" s="92"/>
       <c r="AR64" s="92"/>
@@ -11357,19 +11415,19 @@
         <v>6</v>
       </c>
       <c r="E65" s="178" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F65" s="179"/>
       <c r="G65" s="179"/>
       <c r="H65" s="180"/>
       <c r="I65" s="366" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="366"/>
       <c r="K65" s="366"/>
       <c r="L65" s="366"/>
       <c r="M65" s="282" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N65" s="283"/>
       <c r="O65" s="283"/>
@@ -11379,7 +11437,7 @@
       <c r="S65" s="283"/>
       <c r="T65" s="284"/>
       <c r="U65" s="175" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V65" s="176"/>
       <c r="W65" s="176"/>
@@ -11391,28 +11449,28 @@
       <c r="AA65" s="176"/>
       <c r="AB65" s="177"/>
       <c r="AC65" s="142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD65" s="175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE65" s="176"/>
       <c r="AF65" s="176"/>
       <c r="AG65" s="177"/>
       <c r="AL65" s="178" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM65" s="249" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN65" s="249" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO65" s="249" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AP65" s="271" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="3:48" s="64" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11420,19 +11478,19 @@
         <v>7</v>
       </c>
       <c r="E66" s="178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F66" s="179"/>
       <c r="G66" s="179"/>
       <c r="H66" s="180"/>
       <c r="I66" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J66" s="295"/>
       <c r="K66" s="295"/>
       <c r="L66" s="295"/>
       <c r="M66" s="282" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N66" s="283"/>
       <c r="O66" s="283"/>
@@ -11442,7 +11500,7 @@
       <c r="S66" s="283"/>
       <c r="T66" s="284"/>
       <c r="U66" s="175" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V66" s="176"/>
       <c r="W66" s="176"/>
@@ -11454,28 +11512,28 @@
       <c r="AA66" s="176"/>
       <c r="AB66" s="177"/>
       <c r="AC66" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD66" s="175" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="AE66" s="176"/>
       <c r="AF66" s="176"/>
       <c r="AG66" s="177"/>
       <c r="AL66" s="178" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM66" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN66" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AO66" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AP66" s="271" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="3:48" s="64" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11483,19 +11541,19 @@
         <v>8</v>
       </c>
       <c r="E67" s="178" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F67" s="179"/>
       <c r="G67" s="179"/>
       <c r="H67" s="180"/>
       <c r="I67" s="295" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="295"/>
       <c r="K67" s="295"/>
       <c r="L67" s="295"/>
       <c r="M67" s="282" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N67" s="283"/>
       <c r="O67" s="283"/>
@@ -11505,7 +11563,7 @@
       <c r="S67" s="283"/>
       <c r="T67" s="284"/>
       <c r="U67" s="175" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V67" s="176"/>
       <c r="W67" s="176"/>
@@ -11517,28 +11575,28 @@
       <c r="AA67" s="176"/>
       <c r="AB67" s="177"/>
       <c r="AC67" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD67" s="175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE67" s="176"/>
       <c r="AF67" s="176"/>
       <c r="AG67" s="177"/>
       <c r="AL67" s="178" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM67" s="249" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN67" s="249" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AO67" s="249" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP67" s="271" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AV67" s="75"/>
     </row>
@@ -11547,19 +11605,19 @@
         <v>9</v>
       </c>
       <c r="E68" s="178" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F68" s="179"/>
       <c r="G68" s="179"/>
       <c r="H68" s="180"/>
       <c r="I68" s="295" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="295"/>
       <c r="K68" s="295"/>
       <c r="L68" s="295"/>
       <c r="M68" s="282" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N68" s="283"/>
       <c r="O68" s="283"/>
@@ -11569,7 +11627,7 @@
       <c r="S68" s="283"/>
       <c r="T68" s="284"/>
       <c r="U68" s="175" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V68" s="176"/>
       <c r="W68" s="176"/>
@@ -11581,28 +11639,28 @@
       <c r="AA68" s="176"/>
       <c r="AB68" s="177"/>
       <c r="AC68" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD68" s="175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE68" s="176"/>
       <c r="AF68" s="176"/>
       <c r="AG68" s="177"/>
       <c r="AL68" s="175" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AM68" s="275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AN68" s="275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO68" s="275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AP68" s="276" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR68" s="92"/>
       <c r="AS68" s="92"/>
@@ -11612,19 +11670,19 @@
         <v>10</v>
       </c>
       <c r="E69" s="175" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F69" s="176"/>
       <c r="G69" s="176"/>
       <c r="H69" s="177"/>
       <c r="I69" s="295" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J69" s="295"/>
       <c r="K69" s="295"/>
       <c r="L69" s="295"/>
       <c r="M69" s="282" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N69" s="283"/>
       <c r="O69" s="283"/>
@@ -11634,7 +11692,7 @@
       <c r="S69" s="283"/>
       <c r="T69" s="284"/>
       <c r="U69" s="175" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V69" s="176"/>
       <c r="W69" s="176"/>
@@ -11646,10 +11704,10 @@
       <c r="AA69" s="176"/>
       <c r="AB69" s="177"/>
       <c r="AC69" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD69" s="175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE69" s="176"/>
       <c r="AF69" s="176"/>
@@ -11659,19 +11717,19 @@
       <c r="AJ69" s="92"/>
       <c r="AK69" s="92"/>
       <c r="AL69" s="178" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM69" s="249" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AN69" s="249" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AO69" s="249" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AP69" s="271" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AQ69" s="92"/>
       <c r="AR69" s="92"/>
@@ -11681,19 +11739,19 @@
         <v>11</v>
       </c>
       <c r="E70" s="175" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F70" s="176"/>
       <c r="G70" s="176"/>
       <c r="H70" s="177"/>
       <c r="I70" s="295" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J70" s="295"/>
       <c r="K70" s="295"/>
       <c r="L70" s="295"/>
       <c r="M70" s="282" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N70" s="283"/>
       <c r="O70" s="283"/>
@@ -11703,7 +11761,7 @@
       <c r="S70" s="283"/>
       <c r="T70" s="284"/>
       <c r="U70" s="175" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V70" s="176"/>
       <c r="W70" s="176"/>
@@ -11715,28 +11773,28 @@
       <c r="AA70" s="176"/>
       <c r="AB70" s="177"/>
       <c r="AC70" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD70" s="175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE70" s="176"/>
       <c r="AF70" s="176"/>
       <c r="AG70" s="177"/>
       <c r="AL70" s="178" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM70" s="249" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AN70" s="249" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO70" s="249" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AP70" s="271" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="3:48" x14ac:dyDescent="0.15">
@@ -11744,19 +11802,19 @@
         <v>12</v>
       </c>
       <c r="E71" s="178" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F71" s="179"/>
       <c r="G71" s="179"/>
       <c r="H71" s="180"/>
       <c r="I71" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J71" s="295"/>
       <c r="K71" s="295"/>
       <c r="L71" s="295"/>
       <c r="M71" s="282" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N71" s="283"/>
       <c r="O71" s="283"/>
@@ -11766,7 +11824,7 @@
       <c r="S71" s="283"/>
       <c r="T71" s="284"/>
       <c r="U71" s="175" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V71" s="176"/>
       <c r="W71" s="176"/>
@@ -11778,28 +11836,28 @@
       <c r="AA71" s="176"/>
       <c r="AB71" s="177"/>
       <c r="AC71" s="142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD71" s="175" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE71" s="176"/>
       <c r="AF71" s="176"/>
       <c r="AG71" s="177"/>
       <c r="AL71" s="285" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM71" s="249" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN71" s="249" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO71" s="249" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP71" s="271" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="3:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11884,7 +11942,7 @@
     </row>
     <row r="76" spans="3:48" x14ac:dyDescent="0.15">
       <c r="D76" s="316" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E76" s="318" t="s">
         <v>49</v>
@@ -11975,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="262" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F78" s="278"/>
       <c r="G78" s="278"/>
@@ -11983,32 +12041,32 @@
       <c r="I78" s="278"/>
       <c r="J78" s="279"/>
       <c r="K78" s="277" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L78" s="275"/>
       <c r="M78" s="275"/>
       <c r="N78" s="276"/>
       <c r="O78" s="105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P78" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q78" s="112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R78" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S78" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T78" s="280" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U78" s="281"/>
       <c r="V78" s="277" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W78" s="275"/>
       <c r="X78" s="275"/>
@@ -12134,7 +12192,7 @@
       <c r="AC83" s="298"/>
       <c r="AD83" s="299"/>
       <c r="AE83" s="367" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF83" s="368"/>
       <c r="AG83" s="368"/>
@@ -12145,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="277" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F84" s="275"/>
       <c r="G84" s="275"/>
@@ -12153,7 +12211,7 @@
       <c r="I84" s="275"/>
       <c r="J84" s="276"/>
       <c r="K84" s="277" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L84" s="275"/>
       <c r="M84" s="275"/>
@@ -12162,7 +12220,7 @@
       <c r="P84" s="275"/>
       <c r="Q84" s="276"/>
       <c r="R84" s="175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S84" s="275"/>
       <c r="T84" s="275"/>
@@ -12172,7 +12230,7 @@
       <c r="X84" s="275"/>
       <c r="Y84" s="276"/>
       <c r="Z84" s="277" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA84" s="275"/>
       <c r="AB84" s="275"/>
@@ -12190,7 +12248,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="351" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F85" s="352"/>
       <c r="G85" s="352"/>
@@ -12198,7 +12256,7 @@
       <c r="I85" s="352"/>
       <c r="J85" s="353"/>
       <c r="K85" s="351" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L85" s="352"/>
       <c r="M85" s="352"/>
@@ -12207,7 +12265,7 @@
       <c r="P85" s="352"/>
       <c r="Q85" s="353"/>
       <c r="R85" s="351" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S85" s="352"/>
       <c r="T85" s="352"/>
@@ -12217,7 +12275,7 @@
       <c r="X85" s="352"/>
       <c r="Y85" s="353"/>
       <c r="Z85" s="351" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA85" s="352"/>
       <c r="AB85" s="352"/>
@@ -12235,7 +12293,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="175" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F86" s="275"/>
       <c r="G86" s="275"/>
@@ -12243,7 +12301,7 @@
       <c r="I86" s="275"/>
       <c r="J86" s="276"/>
       <c r="K86" s="175" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L86" s="275"/>
       <c r="M86" s="275"/>
@@ -12252,7 +12310,7 @@
       <c r="P86" s="275"/>
       <c r="Q86" s="276"/>
       <c r="R86" s="175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S86" s="275"/>
       <c r="T86" s="275"/>
@@ -12262,7 +12320,7 @@
       <c r="X86" s="275"/>
       <c r="Y86" s="276"/>
       <c r="Z86" s="175" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AA86" s="275"/>
       <c r="AB86" s="275"/>
@@ -12280,7 +12338,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="175" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F87" s="275"/>
       <c r="G87" s="275"/>
@@ -12288,7 +12346,7 @@
       <c r="I87" s="275"/>
       <c r="J87" s="276"/>
       <c r="K87" s="175" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L87" s="275"/>
       <c r="M87" s="275"/>
@@ -12297,7 +12355,7 @@
       <c r="P87" s="275"/>
       <c r="Q87" s="276"/>
       <c r="R87" s="175" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S87" s="275"/>
       <c r="T87" s="275"/>
@@ -12307,7 +12365,7 @@
       <c r="X87" s="275"/>
       <c r="Y87" s="276"/>
       <c r="Z87" s="175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA87" s="275"/>
       <c r="AB87" s="275"/>
@@ -12370,7 +12428,7 @@
     </row>
     <row r="91" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D91" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E91" s="29"/>
     </row>
@@ -12381,7 +12439,7 @@
     <row r="93" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="29"/>
       <c r="E93" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="3:36" x14ac:dyDescent="0.15">
@@ -12393,7 +12451,7 @@
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
       <c r="F95" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="3:36" x14ac:dyDescent="0.15">
@@ -12434,17 +12492,17 @@
     </row>
     <row r="98" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="4:58" x14ac:dyDescent="0.15">
       <c r="F99" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G101" s="268" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H101" s="269"/>
       <c r="I101" s="269"/>
@@ -12456,7 +12514,7 @@
       <c r="O101" s="269"/>
       <c r="P101" s="270"/>
       <c r="Q101" s="334" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R101" s="335"/>
       <c r="S101" s="335"/>
@@ -12470,7 +12528,7 @@
     </row>
     <row r="102" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G102" s="259" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H102" s="337"/>
       <c r="I102" s="337"/>
@@ -12482,7 +12540,7 @@
       <c r="O102" s="337"/>
       <c r="P102" s="338"/>
       <c r="Q102" s="262" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R102" s="278"/>
       <c r="S102" s="278"/>
@@ -12508,7 +12566,7 @@
       <c r="O103" s="340"/>
       <c r="P103" s="341"/>
       <c r="Q103" s="262" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R103" s="278"/>
       <c r="S103" s="278"/>
@@ -12538,7 +12596,7 @@
     </row>
     <row r="104" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G104" s="272" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H104" s="273"/>
       <c r="I104" s="273"/>
@@ -12631,19 +12689,19 @@
     <row r="106" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G106" s="81"/>
       <c r="H106" s="132" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I106" s="82"/>
       <c r="J106" s="82"/>
       <c r="K106" s="82"/>
       <c r="L106" s="83"/>
       <c r="M106" s="83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N106" s="82"/>
       <c r="O106" s="82"/>
       <c r="P106" s="132" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q106" s="82"/>
       <c r="R106" s="82"/>
@@ -12796,7 +12854,7 @@
     </row>
     <row r="110" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E110" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ110" s="77"/>
       <c r="AK110" s="77"/>
@@ -12850,7 +12908,7 @@
     <row r="112" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E112" s="92"/>
       <c r="F112" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AJ112" s="77"/>
       <c r="AK112" s="77"/>
@@ -12880,7 +12938,7 @@
       <c r="E113" s="92"/>
       <c r="F113" s="93"/>
       <c r="G113" s="159" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AJ113" s="77"/>
       <c r="AK113" s="77"/>
@@ -12909,7 +12967,7 @@
     <row r="114" spans="4:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E114" s="44"/>
       <c r="G114" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AJ114" s="143"/>
       <c r="AK114" s="143"/>
@@ -12991,7 +13049,7 @@
     </row>
     <row r="117" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E117" s="29"/>
     </row>
@@ -13002,7 +13060,7 @@
     <row r="119" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D119" s="29"/>
       <c r="E119" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="4:58" x14ac:dyDescent="0.15">
@@ -13014,7 +13072,7 @@
       <c r="D121" s="29"/>
       <c r="E121" s="29"/>
       <c r="F121" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="4:58" x14ac:dyDescent="0.15">
@@ -13055,17 +13113,17 @@
     </row>
     <row r="124" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E124" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="4:58" x14ac:dyDescent="0.15">
       <c r="F125" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G127" s="268" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H127" s="269"/>
       <c r="I127" s="269"/>
@@ -13077,7 +13135,7 @@
       <c r="O127" s="269"/>
       <c r="P127" s="270"/>
       <c r="Q127" s="334" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R127" s="335"/>
       <c r="S127" s="335"/>
@@ -13091,7 +13149,7 @@
     </row>
     <row r="128" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G128" s="259" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H128" s="337"/>
       <c r="I128" s="337"/>
@@ -13103,7 +13161,7 @@
       <c r="O128" s="337"/>
       <c r="P128" s="338"/>
       <c r="Q128" s="262" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R128" s="278"/>
       <c r="S128" s="278"/>
@@ -13129,7 +13187,7 @@
       <c r="O129" s="340"/>
       <c r="P129" s="341"/>
       <c r="Q129" s="262" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R129" s="278"/>
       <c r="S129" s="278"/>
@@ -13159,7 +13217,7 @@
     </row>
     <row r="130" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G130" s="272" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H130" s="273"/>
       <c r="I130" s="273"/>
@@ -13252,19 +13310,19 @@
     <row r="132" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G132" s="81"/>
       <c r="H132" s="132" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I132" s="82"/>
       <c r="J132" s="82"/>
       <c r="K132" s="82"/>
       <c r="L132" s="83"/>
       <c r="M132" s="83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N132" s="82"/>
       <c r="O132" s="82"/>
       <c r="P132" s="132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q132" s="82"/>
       <c r="R132" s="82"/>
@@ -13417,7 +13475,7 @@
     </row>
     <row r="136" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E136" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ136" s="77"/>
       <c r="AK136" s="77"/>
@@ -13471,7 +13529,7 @@
     <row r="138" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E138" s="92"/>
       <c r="F138" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AJ138" s="77"/>
       <c r="AK138" s="77"/>
@@ -13501,7 +13559,7 @@
       <c r="E139" s="92"/>
       <c r="F139" s="93"/>
       <c r="G139" s="159" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AJ139" s="77"/>
       <c r="AK139" s="77"/>
@@ -13530,7 +13588,7 @@
     <row r="140" spans="4:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E140" s="44"/>
       <c r="G140" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AJ140" s="143"/>
       <c r="AK140" s="143"/>
@@ -13584,7 +13642,7 @@
     </row>
     <row r="142" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D142" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E142" s="29"/>
     </row>
@@ -13595,7 +13653,7 @@
     <row r="144" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D144" s="29"/>
       <c r="E144" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:58" x14ac:dyDescent="0.15">
@@ -13607,7 +13665,7 @@
       <c r="D146" s="29"/>
       <c r="E146" s="29"/>
       <c r="F146" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:58" x14ac:dyDescent="0.15">
@@ -13648,7 +13706,7 @@
     </row>
     <row r="149" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E149" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ149" s="77"/>
       <c r="AK149" s="77"/>
@@ -13702,7 +13760,7 @@
     <row r="151" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E151" s="92"/>
       <c r="F151" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ151" s="77"/>
       <c r="AK151" s="77"/>
@@ -13784,7 +13842,7 @@
     </row>
     <row r="154" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D154" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E154" s="29"/>
       <c r="AJ154" s="77"/>
@@ -13813,7 +13871,7 @@
     </row>
     <row r="155" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E155" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F155" s="29"/>
       <c r="AJ155" s="77"/>
@@ -13905,7 +13963,7 @@
       <c r="AB157" s="332"/>
       <c r="AC157" s="333"/>
       <c r="AD157" s="348" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE157" s="349"/>
       <c r="AF157" s="349"/>
@@ -13947,7 +14005,7 @@
       <c r="K158" s="327"/>
       <c r="L158" s="328"/>
       <c r="M158" s="282" t="s">
-        <v>87</v>
+        <v>349</v>
       </c>
       <c r="N158" s="327"/>
       <c r="O158" s="327"/>
@@ -13959,18 +14017,18 @@
       <c r="U158" s="327"/>
       <c r="V158" s="328"/>
       <c r="W158" s="345" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X158" s="346"/>
       <c r="Y158" s="347"/>
       <c r="Z158" s="282" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA158" s="283"/>
       <c r="AB158" s="283"/>
       <c r="AC158" s="284"/>
       <c r="AD158" s="282" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE158" s="327"/>
       <c r="AF158" s="327"/>
@@ -14005,7 +14063,7 @@
         <v>2</v>
       </c>
       <c r="G159" s="329" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H159" s="247"/>
       <c r="I159" s="247"/>
@@ -14013,7 +14071,7 @@
       <c r="K159" s="247"/>
       <c r="L159" s="248"/>
       <c r="M159" s="342" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N159" s="343"/>
       <c r="O159" s="343"/>
@@ -14025,7 +14083,7 @@
       <c r="U159" s="343"/>
       <c r="V159" s="344"/>
       <c r="W159" s="345" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="X159" s="346"/>
       <c r="Y159" s="347"/>
@@ -14036,7 +14094,7 @@
       <c r="AB159" s="327"/>
       <c r="AC159" s="328"/>
       <c r="AD159" s="342" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE159" s="343"/>
       <c r="AF159" s="343"/>
@@ -14093,7 +14151,7 @@
     <row r="161" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E161" s="29"/>
       <c r="F161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="5:58" x14ac:dyDescent="0.15">
@@ -14103,28 +14161,28 @@
     </row>
     <row r="163" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E163" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G165" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="166" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G166" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="5:58" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="168" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G168" s="253" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H168" s="254"/>
       <c r="I168" s="254"/>
@@ -14136,7 +14194,7 @@
       <c r="O168" s="254"/>
       <c r="P168" s="255"/>
       <c r="Q168" s="256" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R168" s="257"/>
       <c r="S168" s="257"/>
@@ -14150,7 +14208,7 @@
     </row>
     <row r="169" spans="5:58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G169" s="259" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H169" s="260"/>
       <c r="I169" s="260"/>
@@ -14162,7 +14220,7 @@
       <c r="O169" s="260"/>
       <c r="P169" s="261"/>
       <c r="Q169" s="262" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R169" s="263"/>
       <c r="S169" s="263"/>
@@ -14178,7 +14236,7 @@
     </row>
     <row r="170" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G170" s="265" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H170" s="266"/>
       <c r="I170" s="266"/>
@@ -14271,19 +14329,19 @@
     <row r="172" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G172" s="148"/>
       <c r="H172" s="132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I172" s="132"/>
       <c r="J172" s="132"/>
       <c r="K172" s="132"/>
       <c r="L172" s="149"/>
       <c r="M172" s="149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N172" s="132"/>
       <c r="O172" s="132"/>
       <c r="P172" s="132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q172" s="132"/>
       <c r="R172" s="132"/>
@@ -14411,7 +14469,7 @@
     </row>
     <row r="175" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F175" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G175" s="132"/>
       <c r="H175" s="132"/>
@@ -14467,7 +14525,7 @@
     </row>
     <row r="178" spans="5:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E178" s="50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F178" s="126"/>
       <c r="G178" s="126"/>
@@ -14506,7 +14564,7 @@
     <row r="179" spans="5:38" x14ac:dyDescent="0.15">
       <c r="E179" s="64"/>
       <c r="F179" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G179" s="92"/>
       <c r="H179" s="92"/>
@@ -14897,7 +14955,7 @@
       <c r="AF2" s="198"/>
       <c r="AG2" s="310">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44701</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="311"/>
       <c r="AI2" s="312"/>
@@ -14955,12 +15013,12 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -15000,54 +15058,54 @@
     <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="374" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="377" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="374"/>
-      <c r="G42" s="374"/>
-      <c r="H42" s="374"/>
-      <c r="I42" s="374"/>
-      <c r="J42" s="374"/>
-      <c r="K42" s="374"/>
-      <c r="L42" s="374"/>
-      <c r="M42" s="374"/>
+      <c r="F42" s="377"/>
+      <c r="G42" s="377"/>
+      <c r="H42" s="377"/>
+      <c r="I42" s="377"/>
+      <c r="J42" s="377"/>
+      <c r="K42" s="377"/>
+      <c r="L42" s="377"/>
+      <c r="M42" s="377"/>
       <c r="N42" s="302" t="s">
         <v>43</v>
       </c>
       <c r="O42" s="302"/>
       <c r="P42" s="302"/>
-      <c r="Q42" s="375" t="s">
-        <v>119</v>
-      </c>
-      <c r="R42" s="376"/>
-      <c r="S42" s="376"/>
-      <c r="T42" s="376"/>
-      <c r="U42" s="377"/>
-      <c r="V42" s="374" t="s">
+      <c r="Q42" s="378" t="s">
+        <v>118</v>
+      </c>
+      <c r="R42" s="379"/>
+      <c r="S42" s="379"/>
+      <c r="T42" s="379"/>
+      <c r="U42" s="380"/>
+      <c r="V42" s="377" t="s">
         <v>14</v>
       </c>
-      <c r="W42" s="374"/>
-      <c r="X42" s="374"/>
-      <c r="Y42" s="374"/>
-      <c r="Z42" s="374"/>
-      <c r="AA42" s="374"/>
-      <c r="AB42" s="374"/>
-      <c r="AC42" s="374"/>
+      <c r="W42" s="377"/>
+      <c r="X42" s="377"/>
+      <c r="Y42" s="377"/>
+      <c r="Z42" s="377"/>
+      <c r="AA42" s="377"/>
+      <c r="AB42" s="377"/>
+      <c r="AC42" s="377"/>
     </row>
     <row r="43" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="124">
         <v>1</v>
       </c>
       <c r="E43" s="293" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F43" s="293"/>
       <c r="G43" s="293"/>
@@ -15058,22 +15116,22 @@
       <c r="L43" s="293"/>
       <c r="M43" s="293"/>
       <c r="N43" s="293" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O43" s="293"/>
       <c r="P43" s="293"/>
-      <c r="Q43" s="373" t="s">
-        <v>96</v>
+      <c r="Q43" s="376" t="s">
+        <v>95</v>
       </c>
       <c r="R43" s="358"/>
       <c r="S43" s="358"/>
       <c r="T43" s="358"/>
       <c r="U43" s="359"/>
       <c r="V43" s="293" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W43" s="293" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X43" s="293"/>
       <c r="Y43" s="293"/>
@@ -15085,7 +15143,7 @@
     <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AK45" s="64"/>
       <c r="AL45" s="64"/>
@@ -15185,7 +15243,7 @@
       <c r="AI48" s="92"/>
       <c r="AJ48" s="92"/>
       <c r="AK48" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL48" s="92"/>
       <c r="AM48" s="92"/>
@@ -15206,7 +15264,7 @@
       <c r="K49" s="288"/>
       <c r="L49" s="289"/>
       <c r="M49" s="287" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N49" s="288"/>
       <c r="O49" s="288"/>
@@ -15297,7 +15355,7 @@
     </row>
     <row r="51" spans="4:48" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D51" s="306" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E51" s="307"/>
       <c r="F51" s="307"/>
@@ -15349,19 +15407,19 @@
         <v>1</v>
       </c>
       <c r="E52" s="178" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F52" s="179"/>
       <c r="G52" s="179"/>
       <c r="H52" s="180"/>
       <c r="I52" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J52" s="295"/>
       <c r="K52" s="295"/>
       <c r="L52" s="295"/>
       <c r="M52" s="282" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N52" s="283"/>
       <c r="O52" s="283"/>
@@ -15371,7 +15429,7 @@
       <c r="S52" s="283"/>
       <c r="T52" s="284"/>
       <c r="U52" s="175" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V52" s="176"/>
       <c r="W52" s="176"/>
@@ -15383,10 +15441,10 @@
       <c r="AA52" s="176"/>
       <c r="AB52" s="177"/>
       <c r="AC52" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD52" s="175" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AE52" s="176"/>
       <c r="AF52" s="176"/>
@@ -15404,19 +15462,19 @@
         <v>2</v>
       </c>
       <c r="E53" s="178" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F53" s="179"/>
       <c r="G53" s="179"/>
       <c r="H53" s="180"/>
       <c r="I53" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J53" s="295"/>
       <c r="K53" s="295"/>
       <c r="L53" s="295"/>
       <c r="M53" s="282" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N53" s="283"/>
       <c r="O53" s="283"/>
@@ -15426,7 +15484,7 @@
       <c r="S53" s="283"/>
       <c r="T53" s="284"/>
       <c r="U53" s="175" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V53" s="176"/>
       <c r="W53" s="176"/>
@@ -15438,10 +15496,10 @@
       <c r="AA53" s="176"/>
       <c r="AB53" s="177"/>
       <c r="AC53" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD53" s="175" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AE53" s="176"/>
       <c r="AF53" s="176"/>
@@ -15459,13 +15517,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="178" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F54" s="179"/>
       <c r="G54" s="179"/>
       <c r="H54" s="180"/>
       <c r="I54" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J54" s="295"/>
       <c r="K54" s="295"/>
@@ -15493,10 +15551,10 @@
       <c r="AA54" s="286"/>
       <c r="AB54" s="286"/>
       <c r="AC54" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD54" s="175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE54" s="176"/>
       <c r="AF54" s="176"/>
@@ -15522,13 +15580,13 @@
         <v>4</v>
       </c>
       <c r="E55" s="178" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F55" s="179"/>
       <c r="G55" s="179"/>
       <c r="H55" s="180"/>
       <c r="I55" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" s="295"/>
       <c r="K55" s="295"/>
@@ -15544,7 +15602,7 @@
       <c r="S55" s="283"/>
       <c r="T55" s="284"/>
       <c r="U55" s="175" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V55" s="176"/>
       <c r="W55" s="176"/>
@@ -15556,10 +15614,10 @@
       <c r="AA55" s="286"/>
       <c r="AB55" s="286"/>
       <c r="AC55" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD55" s="175" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE55" s="176"/>
       <c r="AF55" s="176"/>
@@ -15585,13 +15643,13 @@
         <v>5</v>
       </c>
       <c r="E56" s="178" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F56" s="179"/>
       <c r="G56" s="179"/>
       <c r="H56" s="180"/>
       <c r="I56" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J56" s="295"/>
       <c r="K56" s="295"/>
@@ -15607,7 +15665,7 @@
       <c r="S56" s="283"/>
       <c r="T56" s="284"/>
       <c r="U56" s="175" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V56" s="176"/>
       <c r="W56" s="176"/>
@@ -15619,10 +15677,10 @@
       <c r="AA56" s="286"/>
       <c r="AB56" s="286"/>
       <c r="AC56" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD56" s="175" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE56" s="176"/>
       <c r="AF56" s="176"/>
@@ -15648,13 +15706,13 @@
         <v>6</v>
       </c>
       <c r="E57" s="178" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F57" s="179"/>
       <c r="G57" s="179"/>
       <c r="H57" s="180"/>
       <c r="I57" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J57" s="295"/>
       <c r="K57" s="295"/>
@@ -15670,7 +15728,7 @@
       <c r="S57" s="283"/>
       <c r="T57" s="284"/>
       <c r="U57" s="175" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V57" s="176"/>
       <c r="W57" s="176"/>
@@ -15682,10 +15740,10 @@
       <c r="AA57" s="176"/>
       <c r="AB57" s="177"/>
       <c r="AC57" s="142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD57" s="175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE57" s="176"/>
       <c r="AF57" s="176"/>
@@ -15703,13 +15761,13 @@
         <v>7</v>
       </c>
       <c r="E58" s="178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F58" s="179"/>
       <c r="G58" s="179"/>
       <c r="H58" s="180"/>
       <c r="I58" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J58" s="295"/>
       <c r="K58" s="295"/>
@@ -15725,7 +15783,7 @@
       <c r="S58" s="283"/>
       <c r="T58" s="284"/>
       <c r="U58" s="175" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V58" s="176"/>
       <c r="W58" s="176"/>
@@ -15737,10 +15795,10 @@
       <c r="AA58" s="176"/>
       <c r="AB58" s="177"/>
       <c r="AC58" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD58" s="175" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AE58" s="176"/>
       <c r="AF58" s="176"/>
@@ -15758,13 +15816,13 @@
         <v>8</v>
       </c>
       <c r="E59" s="178" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F59" s="179"/>
       <c r="G59" s="179"/>
       <c r="H59" s="180"/>
       <c r="I59" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J59" s="295"/>
       <c r="K59" s="295"/>
@@ -15792,10 +15850,10 @@
       <c r="AA59" s="176"/>
       <c r="AB59" s="177"/>
       <c r="AC59" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD59" s="175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE59" s="176"/>
       <c r="AF59" s="176"/>
@@ -15814,13 +15872,13 @@
         <v>9</v>
       </c>
       <c r="E60" s="178" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F60" s="179"/>
       <c r="G60" s="179"/>
       <c r="H60" s="180"/>
       <c r="I60" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J60" s="295"/>
       <c r="K60" s="295"/>
@@ -15848,10 +15906,10 @@
       <c r="AA60" s="176"/>
       <c r="AB60" s="177"/>
       <c r="AC60" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD60" s="175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE60" s="176"/>
       <c r="AF60" s="176"/>
@@ -15871,13 +15929,13 @@
         <v>10</v>
       </c>
       <c r="E61" s="175" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F61" s="176"/>
       <c r="G61" s="176"/>
       <c r="H61" s="177"/>
       <c r="I61" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J61" s="295"/>
       <c r="K61" s="295"/>
@@ -15893,7 +15951,7 @@
       <c r="S61" s="283"/>
       <c r="T61" s="284"/>
       <c r="U61" s="175" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V61" s="176"/>
       <c r="W61" s="176"/>
@@ -15905,10 +15963,10 @@
       <c r="AA61" s="176"/>
       <c r="AB61" s="177"/>
       <c r="AC61" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD61" s="175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE61" s="176"/>
       <c r="AF61" s="176"/>
@@ -15932,13 +15990,13 @@
         <v>11</v>
       </c>
       <c r="E62" s="175" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F62" s="176"/>
       <c r="G62" s="176"/>
       <c r="H62" s="177"/>
       <c r="I62" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J62" s="295"/>
       <c r="K62" s="295"/>
@@ -15954,7 +16012,7 @@
       <c r="S62" s="283"/>
       <c r="T62" s="284"/>
       <c r="U62" s="175" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V62" s="176"/>
       <c r="W62" s="176"/>
@@ -15966,10 +16024,10 @@
       <c r="AA62" s="176"/>
       <c r="AB62" s="177"/>
       <c r="AC62" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD62" s="175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE62" s="176"/>
       <c r="AF62" s="176"/>
@@ -15987,13 +16045,13 @@
         <v>12</v>
       </c>
       <c r="E63" s="178" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F63" s="179"/>
       <c r="G63" s="179"/>
       <c r="H63" s="180"/>
       <c r="I63" s="295" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J63" s="295"/>
       <c r="K63" s="295"/>
@@ -16009,7 +16067,7 @@
       <c r="S63" s="283"/>
       <c r="T63" s="284"/>
       <c r="U63" s="175" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V63" s="176"/>
       <c r="W63" s="176"/>
@@ -16021,10 +16079,10 @@
       <c r="AA63" s="176"/>
       <c r="AB63" s="177"/>
       <c r="AC63" s="142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD63" s="175" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE63" s="176"/>
       <c r="AF63" s="176"/>
@@ -16042,13 +16100,13 @@
         <v>13</v>
       </c>
       <c r="E64" s="178" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F64" s="179"/>
       <c r="G64" s="179"/>
       <c r="H64" s="180"/>
       <c r="I64" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J64" s="295"/>
       <c r="K64" s="295"/>
@@ -16076,28 +16134,28 @@
       <c r="AA64" s="176"/>
       <c r="AB64" s="177"/>
       <c r="AC64" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD64" s="175" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AE64" s="176"/>
       <c r="AF64" s="176"/>
       <c r="AG64" s="177"/>
       <c r="AL64" s="178" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM64" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN64" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AO64" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AP64" s="271" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="3:52" s="64" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16105,13 +16163,13 @@
         <v>14</v>
       </c>
       <c r="E65" s="178" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F65" s="179"/>
       <c r="G65" s="179"/>
       <c r="H65" s="180"/>
       <c r="I65" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J65" s="295"/>
       <c r="K65" s="295"/>
@@ -16139,28 +16197,28 @@
       <c r="AA65" s="176"/>
       <c r="AB65" s="177"/>
       <c r="AC65" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD65" s="175" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE65" s="176"/>
       <c r="AF65" s="176"/>
       <c r="AG65" s="177"/>
       <c r="AL65" s="178" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM65" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN65" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AO65" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AP65" s="271" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="3:52" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16168,13 +16226,13 @@
         <v>15</v>
       </c>
       <c r="E66" s="178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F66" s="179"/>
       <c r="G66" s="179"/>
       <c r="H66" s="180"/>
       <c r="I66" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J66" s="295"/>
       <c r="K66" s="295"/>
@@ -16202,10 +16260,10 @@
       <c r="AA66" s="286"/>
       <c r="AB66" s="286"/>
       <c r="AC66" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD66" s="175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE66" s="176"/>
       <c r="AF66" s="176"/>
@@ -16215,19 +16273,19 @@
       <c r="AJ66" s="92"/>
       <c r="AK66" s="92"/>
       <c r="AL66" s="178" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM66" s="249" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AN66" s="249" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AO66" s="249" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP66" s="271" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AQ66" s="92"/>
       <c r="AR66" s="92"/>
@@ -16239,13 +16297,13 @@
         <v>16</v>
       </c>
       <c r="E67" s="178" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F67" s="179"/>
       <c r="G67" s="179"/>
       <c r="H67" s="180"/>
       <c r="I67" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J67" s="295"/>
       <c r="K67" s="295"/>
@@ -16273,10 +16331,10 @@
       <c r="AA67" s="286"/>
       <c r="AB67" s="286"/>
       <c r="AC67" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD67" s="175" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE67" s="176"/>
       <c r="AF67" s="176"/>
@@ -16286,19 +16344,19 @@
       <c r="AJ67" s="92"/>
       <c r="AK67" s="92"/>
       <c r="AL67" s="178" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM67" s="249" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AN67" s="249" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO67" s="249" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AP67" s="271" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AQ67" s="92"/>
       <c r="AR67" s="92"/>
@@ -16310,13 +16368,13 @@
         <v>17</v>
       </c>
       <c r="E68" s="178" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F68" s="179"/>
       <c r="G68" s="179"/>
       <c r="H68" s="180"/>
       <c r="I68" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J68" s="295"/>
       <c r="K68" s="295"/>
@@ -16344,10 +16402,10 @@
       <c r="AA68" s="286"/>
       <c r="AB68" s="286"/>
       <c r="AC68" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD68" s="175" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE68" s="176"/>
       <c r="AF68" s="176"/>
@@ -16357,19 +16415,19 @@
       <c r="AJ68" s="92"/>
       <c r="AK68" s="92"/>
       <c r="AL68" s="178" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM68" s="249" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AN68" s="249" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO68" s="249" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AP68" s="271" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AQ68" s="92"/>
       <c r="AR68" s="92"/>
@@ -16381,13 +16439,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="178" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F69" s="179"/>
       <c r="G69" s="179"/>
       <c r="H69" s="180"/>
       <c r="I69" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J69" s="295"/>
       <c r="K69" s="295"/>
@@ -16415,28 +16473,28 @@
       <c r="AA69" s="176"/>
       <c r="AB69" s="177"/>
       <c r="AC69" s="142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD69" s="175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE69" s="176"/>
       <c r="AF69" s="176"/>
       <c r="AG69" s="177"/>
       <c r="AL69" s="178" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM69" s="249" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN69" s="249" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO69" s="249" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AP69" s="271" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="3:52" s="64" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16444,13 +16502,13 @@
         <v>19</v>
       </c>
       <c r="E70" s="178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F70" s="179"/>
       <c r="G70" s="179"/>
       <c r="H70" s="180"/>
       <c r="I70" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J70" s="295"/>
       <c r="K70" s="295"/>
@@ -16478,28 +16536,28 @@
       <c r="AA70" s="176"/>
       <c r="AB70" s="177"/>
       <c r="AC70" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD70" s="175" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="AE70" s="176"/>
       <c r="AF70" s="176"/>
       <c r="AG70" s="177"/>
       <c r="AL70" s="178" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM70" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN70" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AO70" s="249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AP70" s="271" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="3:52" s="64" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16507,13 +16565,13 @@
         <v>20</v>
       </c>
       <c r="E71" s="178" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F71" s="179"/>
       <c r="G71" s="179"/>
       <c r="H71" s="180"/>
       <c r="I71" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J71" s="295"/>
       <c r="K71" s="295"/>
@@ -16541,28 +16599,28 @@
       <c r="AA71" s="176"/>
       <c r="AB71" s="177"/>
       <c r="AC71" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD71" s="175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE71" s="176"/>
       <c r="AF71" s="176"/>
       <c r="AG71" s="177"/>
       <c r="AL71" s="178" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM71" s="249" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN71" s="249" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AO71" s="249" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP71" s="271" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AV71" s="75"/>
     </row>
@@ -16571,13 +16629,13 @@
         <v>21</v>
       </c>
       <c r="E72" s="178" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F72" s="179"/>
       <c r="G72" s="179"/>
       <c r="H72" s="180"/>
       <c r="I72" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J72" s="295"/>
       <c r="K72" s="295"/>
@@ -16605,28 +16663,28 @@
       <c r="AA72" s="176"/>
       <c r="AB72" s="177"/>
       <c r="AC72" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD72" s="175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE72" s="176"/>
       <c r="AF72" s="176"/>
       <c r="AG72" s="177"/>
       <c r="AL72" s="175" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AM72" s="275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AN72" s="275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO72" s="275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AP72" s="276" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR72" s="92"/>
       <c r="AS72" s="92"/>
@@ -16636,13 +16694,13 @@
         <v>22</v>
       </c>
       <c r="E73" s="175" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F73" s="176"/>
       <c r="G73" s="176"/>
       <c r="H73" s="177"/>
       <c r="I73" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J73" s="295"/>
       <c r="K73" s="295"/>
@@ -16670,10 +16728,10 @@
       <c r="AA73" s="176"/>
       <c r="AB73" s="177"/>
       <c r="AC73" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD73" s="175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE73" s="176"/>
       <c r="AF73" s="176"/>
@@ -16683,19 +16741,19 @@
       <c r="AJ73" s="92"/>
       <c r="AK73" s="92"/>
       <c r="AL73" s="178" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM73" s="249" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AN73" s="249" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AO73" s="249" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AP73" s="271" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AQ73" s="92"/>
       <c r="AR73" s="92"/>
@@ -16705,13 +16763,13 @@
         <v>23</v>
       </c>
       <c r="E74" s="175" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F74" s="176"/>
       <c r="G74" s="176"/>
       <c r="H74" s="177"/>
       <c r="I74" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J74" s="295"/>
       <c r="K74" s="295"/>
@@ -16739,28 +16797,28 @@
       <c r="AA74" s="176"/>
       <c r="AB74" s="177"/>
       <c r="AC74" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD74" s="175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE74" s="176"/>
       <c r="AF74" s="176"/>
       <c r="AG74" s="177"/>
       <c r="AL74" s="178" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM74" s="249" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AN74" s="249" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO74" s="249" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AP74" s="271" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="3:52" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16768,13 +16826,13 @@
         <v>24</v>
       </c>
       <c r="E75" s="178" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="179"/>
       <c r="G75" s="179"/>
       <c r="H75" s="180"/>
       <c r="I75" s="295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J75" s="295"/>
       <c r="K75" s="295"/>
@@ -16802,28 +16860,28 @@
       <c r="AA75" s="176"/>
       <c r="AB75" s="177"/>
       <c r="AC75" s="142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD75" s="175" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="176"/>
       <c r="AF75" s="176"/>
       <c r="AG75" s="177"/>
       <c r="AL75" s="285" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM75" s="249" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN75" s="249" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO75" s="249" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP75" s="271" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="3:52" s="63" customFormat="1" x14ac:dyDescent="0.15">
@@ -16882,7 +16940,7 @@
     </row>
     <row r="78" spans="3:52" x14ac:dyDescent="0.15">
       <c r="C78" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D78" s="64"/>
       <c r="E78" s="96"/>
@@ -16924,7 +16982,7 @@
     </row>
     <row r="80" spans="3:52" x14ac:dyDescent="0.15">
       <c r="D80" s="316" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E80" s="318" t="s">
         <v>49</v>
@@ -17015,7 +17073,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="262" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F82" s="278"/>
       <c r="G82" s="278"/>
@@ -17023,28 +17081,28 @@
       <c r="I82" s="278"/>
       <c r="J82" s="279"/>
       <c r="K82" s="277" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L82" s="275"/>
       <c r="M82" s="275"/>
       <c r="N82" s="276"/>
       <c r="O82" s="131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P82" s="112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q82" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R82" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S82" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T82" s="280" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U82" s="281"/>
       <c r="V82" s="277" t="s">
@@ -17068,7 +17126,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="262" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F83" s="278"/>
       <c r="G83" s="278"/>
@@ -17076,28 +17134,28 @@
       <c r="I83" s="278"/>
       <c r="J83" s="279"/>
       <c r="K83" s="277" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L83" s="275"/>
       <c r="M83" s="275"/>
       <c r="N83" s="276"/>
       <c r="O83" s="105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P83" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q83" s="112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R83" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S83" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T83" s="280" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U83" s="281"/>
       <c r="V83" s="277" t="s">
@@ -17186,7 +17244,7 @@
     </row>
     <row r="86" spans="3:58" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G86"/>
     </row>
@@ -17230,7 +17288,7 @@
       <c r="AC88" s="298"/>
       <c r="AD88" s="299"/>
       <c r="AE88" s="367" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF88" s="368"/>
       <c r="AG88" s="368"/>
@@ -17241,7 +17299,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="175" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F89" s="176"/>
       <c r="G89" s="176"/>
@@ -17249,7 +17307,7 @@
       <c r="I89" s="176"/>
       <c r="J89" s="177"/>
       <c r="K89" s="175" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L89" s="176"/>
       <c r="M89" s="176"/>
@@ -17258,7 +17316,7 @@
       <c r="P89" s="176"/>
       <c r="Q89" s="177"/>
       <c r="R89" s="175" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S89" s="275"/>
       <c r="T89" s="275"/>
@@ -17268,25 +17326,25 @@
       <c r="X89" s="275"/>
       <c r="Y89" s="276"/>
       <c r="Z89" s="175" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA89" s="275"/>
       <c r="AB89" s="275"/>
       <c r="AC89" s="275"/>
       <c r="AD89" s="276"/>
-      <c r="AE89" s="378" t="s">
+      <c r="AE89" s="373" t="s">
         <v>71</v>
       </c>
-      <c r="AF89" s="379"/>
-      <c r="AG89" s="379"/>
-      <c r="AH89" s="380"/>
+      <c r="AF89" s="374"/>
+      <c r="AG89" s="374"/>
+      <c r="AH89" s="375"/>
     </row>
     <row r="90" spans="3:58" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D90" s="106">
         <v>2</v>
       </c>
       <c r="E90" s="277" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F90" s="275"/>
       <c r="G90" s="275"/>
@@ -17294,7 +17352,7 @@
       <c r="I90" s="275"/>
       <c r="J90" s="276"/>
       <c r="K90" s="277" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L90" s="275"/>
       <c r="M90" s="275"/>
@@ -17303,7 +17361,7 @@
       <c r="P90" s="275"/>
       <c r="Q90" s="276"/>
       <c r="R90" s="175" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S90" s="275"/>
       <c r="T90" s="275"/>
@@ -17313,18 +17371,18 @@
       <c r="X90" s="275"/>
       <c r="Y90" s="276"/>
       <c r="Z90" s="175" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AA90" s="275"/>
       <c r="AB90" s="275"/>
       <c r="AC90" s="275"/>
       <c r="AD90" s="276"/>
-      <c r="AE90" s="378" t="s">
+      <c r="AE90" s="373" t="s">
         <v>71</v>
       </c>
-      <c r="AF90" s="379"/>
-      <c r="AG90" s="379"/>
-      <c r="AH90" s="380"/>
+      <c r="AF90" s="374"/>
+      <c r="AG90" s="374"/>
+      <c r="AH90" s="375"/>
     </row>
     <row r="91" spans="3:58" x14ac:dyDescent="0.15">
       <c r="D91" s="95"/>
@@ -17394,7 +17452,7 @@
     </row>
     <row r="93" spans="3:58" x14ac:dyDescent="0.15">
       <c r="C93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G93"/>
     </row>
@@ -17428,12 +17486,12 @@
     </row>
     <row r="95" spans="3:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D95" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="3:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E96" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F96" s="26"/>
     </row>
@@ -17444,14 +17502,14 @@
     <row r="98" spans="5:34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E98" s="26"/>
       <c r="F98" s="26" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="5:34" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="5:34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E100" s="26"/>
       <c r="F100" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="5:34" x14ac:dyDescent="0.15">
@@ -17461,26 +17519,26 @@
     </row>
     <row r="104" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="5:34" x14ac:dyDescent="0.15">
       <c r="F106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="5:34" x14ac:dyDescent="0.15">
       <c r="F108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="5:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="5:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G110" s="300" t="s">
+        <v>123</v>
+      </c>
+      <c r="H110" s="237" t="s">
         <v>124</v>
-      </c>
-      <c r="H110" s="237" t="s">
-        <v>125</v>
       </c>
       <c r="I110" s="238"/>
       <c r="J110" s="238"/>
@@ -17488,7 +17546,7 @@
       <c r="L110" s="238"/>
       <c r="M110" s="239"/>
       <c r="N110" s="334" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O110" s="335"/>
       <c r="P110" s="335"/>
@@ -17524,14 +17582,14 @@
       <c r="L111" s="244"/>
       <c r="M111" s="245"/>
       <c r="N111" s="334" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O111" s="335"/>
       <c r="P111" s="335"/>
       <c r="Q111" s="335"/>
       <c r="R111" s="336"/>
       <c r="S111" s="268" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T111" s="269"/>
       <c r="U111" s="269"/>
@@ -17554,7 +17612,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="370" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I112" s="371"/>
       <c r="J112" s="371"/>
@@ -17562,14 +17620,14 @@
       <c r="L112" s="371"/>
       <c r="M112" s="372"/>
       <c r="N112" s="56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O112" s="133"/>
       <c r="P112" s="133"/>
       <c r="Q112" s="133"/>
       <c r="R112" s="134"/>
       <c r="S112" s="370" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T112" s="371"/>
       <c r="U112" s="371"/>
@@ -17577,7 +17635,7 @@
       <c r="W112" s="371"/>
       <c r="X112" s="372"/>
       <c r="Y112" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z112" s="275"/>
       <c r="AA112" s="275"/>
@@ -17594,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="H113" s="370" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I113" s="371"/>
       <c r="J113" s="371"/>
@@ -17602,14 +17660,14 @@
       <c r="L113" s="371"/>
       <c r="M113" s="372"/>
       <c r="N113" s="381" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O113" s="382"/>
       <c r="P113" s="382"/>
       <c r="Q113" s="382"/>
       <c r="R113" s="383"/>
       <c r="S113" s="370" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T113" s="371"/>
       <c r="U113" s="371"/>
@@ -17617,7 +17675,7 @@
       <c r="W113" s="371"/>
       <c r="X113" s="372"/>
       <c r="Y113" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z113" s="275"/>
       <c r="AA113" s="275"/>
@@ -17634,7 +17692,7 @@
         <v>3</v>
       </c>
       <c r="H114" s="370" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I114" s="371"/>
       <c r="J114" s="371"/>
@@ -17647,7 +17705,7 @@
       <c r="Q114" s="385"/>
       <c r="R114" s="386"/>
       <c r="S114" s="370" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T114" s="371"/>
       <c r="U114" s="371"/>
@@ -17655,7 +17713,7 @@
       <c r="W114" s="371"/>
       <c r="X114" s="372"/>
       <c r="Y114" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z114" s="275"/>
       <c r="AA114" s="275"/>
@@ -17672,7 +17730,7 @@
         <v>4</v>
       </c>
       <c r="H115" s="370" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I115" s="371"/>
       <c r="J115" s="371"/>
@@ -17685,7 +17743,7 @@
       <c r="Q115" s="385"/>
       <c r="R115" s="386"/>
       <c r="S115" s="370" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T115" s="371"/>
       <c r="U115" s="371"/>
@@ -17693,7 +17751,7 @@
       <c r="W115" s="371"/>
       <c r="X115" s="372"/>
       <c r="Y115" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z115" s="275"/>
       <c r="AA115" s="275"/>
@@ -17710,7 +17768,7 @@
         <v>5</v>
       </c>
       <c r="H116" s="390" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I116" s="371"/>
       <c r="J116" s="371"/>
@@ -17723,7 +17781,7 @@
       <c r="Q116" s="385"/>
       <c r="R116" s="386"/>
       <c r="S116" s="370" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T116" s="371"/>
       <c r="U116" s="371"/>
@@ -17731,7 +17789,7 @@
       <c r="W116" s="371"/>
       <c r="X116" s="372"/>
       <c r="Y116" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z116" s="275"/>
       <c r="AA116" s="275"/>
@@ -17748,7 +17806,7 @@
         <v>6</v>
       </c>
       <c r="H117" s="390" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I117" s="371"/>
       <c r="J117" s="371"/>
@@ -17761,7 +17819,7 @@
       <c r="Q117" s="385"/>
       <c r="R117" s="386"/>
       <c r="S117" s="370" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T117" s="371"/>
       <c r="U117" s="371"/>
@@ -17769,7 +17827,7 @@
       <c r="W117" s="371"/>
       <c r="X117" s="372"/>
       <c r="Y117" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z117" s="275"/>
       <c r="AA117" s="275"/>
@@ -17786,7 +17844,7 @@
         <v>7</v>
       </c>
       <c r="H118" s="370" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I118" s="371"/>
       <c r="J118" s="371"/>
@@ -17799,7 +17857,7 @@
       <c r="Q118" s="385"/>
       <c r="R118" s="386"/>
       <c r="S118" s="390" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T118" s="371"/>
       <c r="U118" s="371"/>
@@ -17807,7 +17865,7 @@
       <c r="W118" s="371"/>
       <c r="X118" s="372"/>
       <c r="Y118" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z118" s="275"/>
       <c r="AA118" s="275"/>
@@ -17824,7 +17882,7 @@
         <v>8</v>
       </c>
       <c r="H119" s="370" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I119" s="371"/>
       <c r="J119" s="371"/>
@@ -17837,7 +17895,7 @@
       <c r="Q119" s="385"/>
       <c r="R119" s="386"/>
       <c r="S119" s="390" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T119" s="371"/>
       <c r="U119" s="371"/>
@@ -17845,7 +17903,7 @@
       <c r="W119" s="371"/>
       <c r="X119" s="372"/>
       <c r="Y119" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z119" s="275"/>
       <c r="AA119" s="275"/>
@@ -17862,7 +17920,7 @@
         <v>9</v>
       </c>
       <c r="H120" s="370" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I120" s="371"/>
       <c r="J120" s="371"/>
@@ -17875,7 +17933,7 @@
       <c r="Q120" s="385"/>
       <c r="R120" s="386"/>
       <c r="S120" s="370" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T120" s="371"/>
       <c r="U120" s="371"/>
@@ -17883,7 +17941,7 @@
       <c r="W120" s="371"/>
       <c r="X120" s="372"/>
       <c r="Y120" s="277" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z120" s="275"/>
       <c r="AA120" s="275"/>
@@ -17900,7 +17958,7 @@
         <v>10</v>
       </c>
       <c r="H121" s="370" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I121" s="371"/>
       <c r="J121" s="371"/>
@@ -17913,7 +17971,7 @@
       <c r="Q121" s="385"/>
       <c r="R121" s="386"/>
       <c r="S121" s="370" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T121" s="371"/>
       <c r="U121" s="371"/>
@@ -17921,7 +17979,7 @@
       <c r="W121" s="371"/>
       <c r="X121" s="372"/>
       <c r="Y121" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z121" s="275"/>
       <c r="AA121" s="275"/>
@@ -17938,7 +17996,7 @@
         <v>11</v>
       </c>
       <c r="H122" s="390" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I122" s="371"/>
       <c r="J122" s="371"/>
@@ -17951,7 +18009,7 @@
       <c r="Q122" s="385"/>
       <c r="R122" s="386"/>
       <c r="S122" s="390" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T122" s="371"/>
       <c r="U122" s="371"/>
@@ -17959,7 +18017,7 @@
       <c r="W122" s="371"/>
       <c r="X122" s="372"/>
       <c r="Y122" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z122" s="275"/>
       <c r="AA122" s="275"/>
@@ -17976,7 +18034,7 @@
         <v>12</v>
       </c>
       <c r="H123" s="390" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I123" s="371"/>
       <c r="J123" s="371"/>
@@ -17989,7 +18047,7 @@
       <c r="Q123" s="388"/>
       <c r="R123" s="389"/>
       <c r="S123" s="390" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T123" s="371"/>
       <c r="U123" s="371"/>
@@ -17997,7 +18055,7 @@
       <c r="W123" s="371"/>
       <c r="X123" s="372"/>
       <c r="Y123" s="277" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z123" s="275"/>
       <c r="AA123" s="275"/>
@@ -18014,7 +18072,7 @@
         <v>13</v>
       </c>
       <c r="H124" s="370" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I124" s="371"/>
       <c r="J124" s="371"/>
@@ -18022,14 +18080,14 @@
       <c r="L124" s="371"/>
       <c r="M124" s="372"/>
       <c r="N124" s="135" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O124" s="127"/>
       <c r="P124" s="127"/>
       <c r="Q124" s="127"/>
       <c r="R124" s="128"/>
       <c r="S124" s="370" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T124" s="371"/>
       <c r="U124" s="371"/>
@@ -18037,7 +18095,7 @@
       <c r="W124" s="371"/>
       <c r="X124" s="372"/>
       <c r="Y124" s="175" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z124" s="275"/>
       <c r="AA124" s="275"/>
@@ -18052,27 +18110,27 @@
     <row r="125" spans="5:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="127" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E127" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F129" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E134" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F136" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -18539,7 +18597,7 @@
       <c r="AF2" s="198"/>
       <c r="AG2" s="310">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44701</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="311"/>
       <c r="AI2" s="312"/>
@@ -18597,12 +18655,12 @@
     <row r="4" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18669,7 +18727,7 @@
     </row>
     <row r="35" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C35" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="103"/>
       <c r="E35" s="103"/>
@@ -18739,17 +18797,17 @@
       <c r="D37" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="374" t="s">
+      <c r="E37" s="377" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="374"/>
-      <c r="G37" s="374"/>
-      <c r="H37" s="374"/>
-      <c r="I37" s="374"/>
-      <c r="J37" s="374"/>
-      <c r="K37" s="374"/>
-      <c r="L37" s="374"/>
-      <c r="M37" s="374"/>
+      <c r="F37" s="377"/>
+      <c r="G37" s="377"/>
+      <c r="H37" s="377"/>
+      <c r="I37" s="377"/>
+      <c r="J37" s="377"/>
+      <c r="K37" s="377"/>
+      <c r="L37" s="377"/>
+      <c r="M37" s="377"/>
       <c r="N37" s="302" t="s">
         <v>43</v>
       </c>
@@ -18762,16 +18820,16 @@
       <c r="S37" s="302"/>
       <c r="T37" s="302"/>
       <c r="U37" s="302"/>
-      <c r="V37" s="374" t="s">
+      <c r="V37" s="377" t="s">
         <v>14</v>
       </c>
-      <c r="W37" s="374"/>
-      <c r="X37" s="374"/>
-      <c r="Y37" s="374"/>
-      <c r="Z37" s="374"/>
-      <c r="AA37" s="374"/>
-      <c r="AB37" s="374"/>
-      <c r="AC37" s="374"/>
+      <c r="W37" s="377"/>
+      <c r="X37" s="377"/>
+      <c r="Y37" s="377"/>
+      <c r="Z37" s="377"/>
+      <c r="AA37" s="377"/>
+      <c r="AB37" s="377"/>
+      <c r="AC37" s="377"/>
       <c r="AD37" s="103"/>
       <c r="AE37" s="103"/>
       <c r="AF37" s="103"/>
@@ -18783,7 +18841,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="293" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38" s="293"/>
       <c r="G38" s="293"/>
@@ -18794,12 +18852,12 @@
       <c r="L38" s="293"/>
       <c r="M38" s="293"/>
       <c r="N38" s="293" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O38" s="293"/>
       <c r="P38" s="293"/>
       <c r="Q38" s="293" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R38" s="293"/>
       <c r="S38" s="293"/>
@@ -18847,7 +18905,7 @@
     <row r="40" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK41" s="64"/>
       <c r="AL41" s="64"/>
@@ -18940,7 +18998,7 @@
       <c r="K44" s="415"/>
       <c r="L44" s="416"/>
       <c r="M44" s="287" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N44" s="288"/>
       <c r="O44" s="288"/>
@@ -19014,19 +19072,19 @@
         <v>1</v>
       </c>
       <c r="E46" s="277" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46" s="275"/>
       <c r="G46" s="275"/>
       <c r="H46" s="276"/>
       <c r="I46" s="413" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J46" s="413"/>
       <c r="K46" s="413"/>
       <c r="L46" s="413"/>
       <c r="M46" s="286" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N46" s="414"/>
       <c r="O46" s="414"/>
@@ -19036,22 +19094,22 @@
       <c r="S46" s="414"/>
       <c r="T46" s="414"/>
       <c r="U46" s="277" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V46" s="275"/>
       <c r="W46" s="275"/>
       <c r="X46" s="275"/>
       <c r="Y46" s="276"/>
       <c r="Z46" s="326" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA46" s="327"/>
       <c r="AB46" s="328"/>
       <c r="AC46" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD46" s="118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE46" s="119"/>
       <c r="AF46" s="119"/>
@@ -19132,7 +19190,7 @@
     </row>
     <row r="49" spans="3:36" x14ac:dyDescent="0.15">
       <c r="C49" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="64"/>
       <c r="E49" s="96"/>
@@ -19174,7 +19232,7 @@
     </row>
     <row r="51" spans="3:36" x14ac:dyDescent="0.15">
       <c r="D51" s="316" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E51" s="318" t="s">
         <v>49</v>
@@ -19265,7 +19323,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="277" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" s="275"/>
       <c r="G53" s="275"/>
@@ -19273,28 +19331,28 @@
       <c r="I53" s="275"/>
       <c r="J53" s="276"/>
       <c r="K53" s="277" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L53" s="275"/>
       <c r="M53" s="275"/>
       <c r="N53" s="276"/>
       <c r="O53" s="98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P53" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q53" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R53" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S53" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T53" s="280" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U53" s="281"/>
       <c r="V53" s="277"/>
@@ -19379,16 +19437,16 @@
     </row>
     <row r="56" spans="3:36" x14ac:dyDescent="0.15">
       <c r="C56" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G56"/>
     </row>
     <row r="58" spans="3:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="125" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="297" t="s">
         <v>141</v>
-      </c>
-      <c r="E58" s="297" t="s">
-        <v>142</v>
       </c>
       <c r="F58" s="298"/>
       <c r="G58" s="298"/>
@@ -19403,7 +19461,7 @@
       <c r="N58" s="298"/>
       <c r="O58" s="299"/>
       <c r="P58" s="395" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q58" s="396"/>
       <c r="R58" s="396"/>
@@ -19422,7 +19480,7 @@
       <c r="AC58" s="399"/>
       <c r="AD58" s="400"/>
       <c r="AE58" s="401" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF58" s="402"/>
       <c r="AG58" s="402"/>
@@ -19433,13 +19491,13 @@
         <v>1</v>
       </c>
       <c r="E59" s="178" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F59" s="249"/>
       <c r="G59" s="249"/>
       <c r="H59" s="271"/>
       <c r="I59" s="175" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J59" s="275"/>
       <c r="K59" s="275"/>
@@ -19448,7 +19506,7 @@
       <c r="N59" s="275"/>
       <c r="O59" s="276"/>
       <c r="P59" s="175" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q59" s="275"/>
       <c r="R59" s="275"/>
@@ -19460,18 +19518,18 @@
       <c r="X59" s="275"/>
       <c r="Y59" s="276"/>
       <c r="Z59" s="175" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA59" s="275"/>
       <c r="AB59" s="275"/>
       <c r="AC59" s="275"/>
       <c r="AD59" s="276"/>
-      <c r="AE59" s="378" t="s">
+      <c r="AE59" s="373" t="s">
         <v>71</v>
       </c>
-      <c r="AF59" s="379"/>
-      <c r="AG59" s="379"/>
-      <c r="AH59" s="380"/>
+      <c r="AF59" s="374"/>
+      <c r="AG59" s="374"/>
+      <c r="AH59" s="375"/>
     </row>
     <row r="60" spans="3:36" x14ac:dyDescent="0.15">
       <c r="AE60" s="394"/>
@@ -19481,13 +19539,13 @@
     </row>
     <row r="62" spans="3:36" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63" spans="3:36" x14ac:dyDescent="0.15">
       <c r="D63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="3:36" x14ac:dyDescent="0.15">
@@ -19496,7 +19554,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D65"/>
       <c r="E65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -19647,15 +19705,15 @@
         <v>79</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>80</v>
@@ -19669,7 +19727,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>81</v>
@@ -19683,7 +19741,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>82</v>
@@ -19697,7 +19755,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>83</v>
@@ -19741,12 +19799,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
